--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1107.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1107.xlsx
@@ -354,10 +354,10 @@
         <v>1.349330245604332</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.623541711236714</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1107.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1107.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.773973312225778</v>
+        <v>1.17537796497345</v>
       </c>
       <c r="B1">
-        <v>1.349330245604332</v>
+        <v>2.403544664382935</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.349050045013428</v>
       </c>
       <c r="E1">
-        <v>1.623541711236714</v>
+        <v>1.207741498947144</v>
       </c>
     </row>
   </sheetData>
